--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/44.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/44.xlsx
@@ -479,13 +479,13 @@
         <v>-0.08634840346860664</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.563982729187194</v>
+        <v>-1.587950782021363</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1855710725405497</v>
+        <v>0.04001289311394894</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1121854167142234</v>
+        <v>0.1150916887389279</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.09464070209869856</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.467064503889897</v>
+        <v>-1.46911017783971</v>
       </c>
       <c r="F3" t="n">
-        <v>0.162155607839515</v>
+        <v>0.001421992054745821</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08809537974470534</v>
+        <v>0.1215641669605783</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1063545079173973</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.470039696951074</v>
+        <v>-1.454835594321099</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1370957969939676</v>
+        <v>-0.06132115788300365</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1301335524688885</v>
+        <v>0.1535959810620328</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1187323137386933</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.545586301735119</v>
+        <v>-1.481720287831476</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1582996893211138</v>
+        <v>-0.03661266134726307</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0956297298645741</v>
+        <v>0.1421264227357855</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1324233562289527</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.551656232310116</v>
+        <v>-1.508262815842198</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2615074166370364</v>
+        <v>0.04974478743214095</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1088515902951185</v>
+        <v>0.1680187753050941</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1471391332006755</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.488075051362515</v>
+        <v>-1.328198374128576</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3209027119801158</v>
+        <v>0.1275871336434654</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04166333846522919</v>
+        <v>0.08714329356830162</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1613772496487874</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.209585880280028</v>
+        <v>-1.069273628594137</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3646029185484374</v>
+        <v>0.2034643154343075</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.002019180403466722</v>
+        <v>0.06312339747660961</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1726065700973</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.6410806472451934</v>
+        <v>-0.5479738162568953</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3066592344160184</v>
+        <v>0.1573378444138821</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.009412028926329932</v>
+        <v>-0.0132685573654079</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.17712203861378</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.02013016497882356</v>
+        <v>0.06433591978198475</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2802740659398974</v>
+        <v>0.2212447230028669</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.04751804304751835</v>
+        <v>-0.03208948960849947</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1701045927056469</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7740756045659531</v>
+        <v>0.8503602133688629</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08453588267520368</v>
+        <v>0.04533567085992925</v>
       </c>
       <c r="G11" t="n">
-        <v>0.003970850562875955</v>
+        <v>-0.004787000434549409</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1484504991146298</v>
       </c>
       <c r="E12" t="n">
-        <v>1.580603601543071</v>
+        <v>1.762588683467773</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.296687717278049</v>
+        <v>-0.3170968829633925</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1134217259259917</v>
+        <v>0.1226791019576737</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.103204643201564</v>
       </c>
       <c r="E13" t="n">
-        <v>2.343684509032717</v>
+        <v>2.604105999907896</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6525294682684312</v>
+        <v>-0.680270490408963</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2357559557440567</v>
+        <v>0.2076117760361943</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.02686258556960636</v>
       </c>
       <c r="E14" t="n">
-        <v>3.051098566276245</v>
+        <v>3.402902032465879</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.185526949265024</v>
+        <v>-1.244145815586603</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4045417443032537</v>
+        <v>0.4270209807654802</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.08324631714255348</v>
       </c>
       <c r="E15" t="n">
-        <v>3.791328795611526</v>
+        <v>4.32411036468855</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.762218537623171</v>
+        <v>-1.899082297802728</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5494235216993409</v>
+        <v>0.6073983117862741</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2266301790522197</v>
       </c>
       <c r="E16" t="n">
-        <v>4.43209194114138</v>
+        <v>5.12066554868016</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.272709335727084</v>
+        <v>-2.489742289499759</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7314086036240427</v>
+        <v>0.8098559911467011</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4004044349437536</v>
       </c>
       <c r="E17" t="n">
-        <v>5.044381549797927</v>
+        <v>5.774921359421034</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.807268823576829</v>
+        <v>-3.072771258649657</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9416610692333099</v>
+        <v>1.021726576311381</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.599459482432758</v>
       </c>
       <c r="E18" t="n">
-        <v>5.419981681111563</v>
+        <v>6.259758283940247</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.334118304151801</v>
+        <v>-3.614229254313761</v>
       </c>
       <c r="G18" t="n">
-        <v>1.143688144595953</v>
+        <v>1.29259295877587</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8081769324800073</v>
       </c>
       <c r="E19" t="n">
-        <v>5.749252237819416</v>
+        <v>6.681028055687424</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.811311702750007</v>
+        <v>-4.098370869261481</v>
       </c>
       <c r="G19" t="n">
-        <v>1.374376002479664</v>
+        <v>1.540225632900996</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.014039556602159</v>
       </c>
       <c r="E20" t="n">
-        <v>6.112800336560509</v>
+        <v>7.090420232175608</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.308245184051164</v>
+        <v>-4.541351987338857</v>
       </c>
       <c r="G20" t="n">
-        <v>1.554928380734685</v>
+        <v>1.735280095087055</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.211062327701888</v>
       </c>
       <c r="E21" t="n">
-        <v>6.332271753198824</v>
+        <v>7.382291672826624</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.616151439293886</v>
+        <v>-4.848749263776834</v>
       </c>
       <c r="G21" t="n">
-        <v>1.703824656025127</v>
+        <v>1.90225075971225</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.394664475556819</v>
       </c>
       <c r="E22" t="n">
-        <v>6.482032896008895</v>
+        <v>7.57097551354405</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.875106070941486</v>
+        <v>-5.085980045720359</v>
       </c>
       <c r="G22" t="n">
-        <v>1.889869369974264</v>
+        <v>2.047828456600507</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.560621325170459</v>
       </c>
       <c r="E23" t="n">
-        <v>6.562798592023873</v>
+        <v>7.662109861063745</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.117021348642775</v>
+        <v>-5.210560003470211</v>
       </c>
       <c r="G23" t="n">
-        <v>2.001620256209397</v>
+        <v>2.17157343294389</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.701130935350584</v>
       </c>
       <c r="E24" t="n">
-        <v>6.660034585993755</v>
+        <v>7.696342268966906</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.232897128414755</v>
+        <v>-5.299265951815433</v>
       </c>
       <c r="G24" t="n">
-        <v>2.098287194187873</v>
+        <v>2.290575056184204</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.811488292213069</v>
       </c>
       <c r="E25" t="n">
-        <v>6.679619138924136</v>
+        <v>7.707927102301059</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.258097830936631</v>
+        <v>-5.28138124781115</v>
       </c>
       <c r="G25" t="n">
-        <v>2.158956613824679</v>
+        <v>2.316657704004657</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.887501684015742</v>
       </c>
       <c r="E26" t="n">
-        <v>6.713250165040024</v>
+        <v>7.615243556262424</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.262979026112646</v>
+        <v>-5.23500989363901</v>
       </c>
       <c r="G26" t="n">
-        <v>2.186326194273072</v>
+        <v>2.343063609783788</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.926848010960592</v>
       </c>
       <c r="E27" t="n">
-        <v>6.600879599397315</v>
+        <v>7.443992468327811</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.253228529213813</v>
+        <v>-5.233075835173042</v>
       </c>
       <c r="G27" t="n">
-        <v>2.19068712711182</v>
+        <v>2.31185396875459</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.92850097527378</v>
       </c>
       <c r="E28" t="n">
-        <v>6.498189694735951</v>
+        <v>7.259290189788197</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.183839988542555</v>
+        <v>-5.17330391381207</v>
       </c>
       <c r="G28" t="n">
-        <v>2.150776357708135</v>
+        <v>2.250776512185039</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.892750894731339</v>
       </c>
       <c r="E29" t="n">
-        <v>6.378863593695608</v>
+        <v>6.994640728781801</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.037132718560961</v>
+        <v>-5.04239389431859</v>
       </c>
       <c r="G29" t="n">
-        <v>2.063311902900433</v>
+        <v>2.173636184672652</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.823446948899426</v>
       </c>
       <c r="E30" t="n">
-        <v>6.211963679868916</v>
+        <v>6.789574418686922</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.864377261277149</v>
+        <v>-4.932089130008027</v>
       </c>
       <c r="G30" t="n">
-        <v>2.017717892630809</v>
+        <v>2.122061292246836</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.727610788813568</v>
       </c>
       <c r="E31" t="n">
-        <v>6.033627753353198</v>
+        <v>6.546860144899093</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.746290519051957</v>
+        <v>-4.908323570838538</v>
       </c>
       <c r="G31" t="n">
-        <v>1.9109213920529</v>
+        <v>2.052518136684022</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.613847354960388</v>
       </c>
       <c r="E32" t="n">
-        <v>5.815810441590224</v>
+        <v>6.21112076949365</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.512577149651237</v>
+        <v>-4.712229193898624</v>
       </c>
       <c r="G32" t="n">
-        <v>1.838405483111617</v>
+        <v>1.97661838782814</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.492439287074505</v>
       </c>
       <c r="E33" t="n">
-        <v>5.538528303527022</v>
+        <v>5.822018214238166</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.365489594127691</v>
+        <v>-4.552421742661497</v>
       </c>
       <c r="G33" t="n">
-        <v>1.743135263482893</v>
+        <v>1.881900146411874</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.372410998398014</v>
       </c>
       <c r="E34" t="n">
-        <v>5.309540904490085</v>
+        <v>5.492460994812241</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.155939757138038</v>
+        <v>-4.352248521195829</v>
       </c>
       <c r="G34" t="n">
-        <v>1.593101486130315</v>
+        <v>1.708630221037225</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.259878525442986</v>
       </c>
       <c r="E35" t="n">
-        <v>5.043769189438472</v>
+        <v>5.162621992033659</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.037822823839347</v>
+        <v>-4.269404215514494</v>
       </c>
       <c r="G35" t="n">
-        <v>1.527986964601369</v>
+        <v>1.65705898813547</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.158282380340998</v>
       </c>
       <c r="E36" t="n">
-        <v>4.730755458448662</v>
+        <v>4.799317861563265</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.876849509228616</v>
+        <v>-4.133230275620339</v>
       </c>
       <c r="G36" t="n">
-        <v>1.483723801248409</v>
+        <v>1.575308880148221</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.066005100246354</v>
       </c>
       <c r="E37" t="n">
-        <v>4.403069475659</v>
+        <v>4.399561211926345</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.737721113576293</v>
+        <v>-4.012726417753194</v>
       </c>
       <c r="G37" t="n">
-        <v>1.385259427035556</v>
+        <v>1.476854264666196</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9831144479209728</v>
       </c>
       <c r="E38" t="n">
-        <v>4.105437944136776</v>
+        <v>4.03197909782924</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.634643299364518</v>
+        <v>-3.885659813404242</v>
       </c>
       <c r="G38" t="n">
-        <v>1.277316885506038</v>
+        <v>1.356246110363328</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9092777491490082</v>
       </c>
       <c r="E39" t="n">
-        <v>3.840127329116784</v>
+        <v>3.746581355241228</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.565732936503831</v>
+        <v>-3.789709532220944</v>
       </c>
       <c r="G39" t="n">
-        <v>1.188411798059858</v>
+        <v>1.292119050410037</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8441087868643227</v>
       </c>
       <c r="E40" t="n">
-        <v>3.495392843570661</v>
+        <v>3.385139922517622</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.493180432321942</v>
+        <v>-3.697333996124067</v>
       </c>
       <c r="G40" t="n">
-        <v>1.094369958674105</v>
+        <v>1.178698811282645</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7869677365505605</v>
       </c>
       <c r="E41" t="n">
-        <v>3.276006815827092</v>
+        <v>3.149348248410883</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.388430215614524</v>
+        <v>-3.550021379870801</v>
       </c>
       <c r="G41" t="n">
-        <v>1.031109596002473</v>
+        <v>1.110738399875993</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.7361146697712967</v>
       </c>
       <c r="E42" t="n">
-        <v>2.971334360012488</v>
+        <v>2.810261628331447</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.29638220692106</v>
+        <v>-3.42673353907464</v>
       </c>
       <c r="G42" t="n">
-        <v>0.995903144778545</v>
+        <v>1.022104727130965</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6908084272033964</v>
       </c>
       <c r="E43" t="n">
-        <v>2.651077211065617</v>
+        <v>2.521881373634137</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.197258813416981</v>
+        <v>-3.293556749386025</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9071590763910259</v>
+        <v>0.9493082546783771</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.647992517676949</v>
       </c>
       <c r="E44" t="n">
-        <v>2.420079513478119</v>
+        <v>2.252247640857355</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.160489440458886</v>
+        <v>-3.255999053953233</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8927167646863086</v>
+        <v>0.9263233939751265</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.6043802482030527</v>
       </c>
       <c r="E45" t="n">
-        <v>2.160103264696966</v>
+        <v>2.009223527365738</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.075736083059329</v>
+        <v>-3.169561400604837</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8172549388763318</v>
+        <v>0.8006870536131476</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5568179900148885</v>
       </c>
       <c r="E46" t="n">
-        <v>2.014262691997031</v>
+        <v>1.86863132208922</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.980941906518808</v>
+        <v>-3.07965024900236</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7782065973095676</v>
+        <v>0.7568965787846673</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5024980345144975</v>
       </c>
       <c r="E47" t="n">
-        <v>1.796914409234476</v>
+        <v>1.652077765968469</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.901156353031364</v>
+        <v>-2.97964734988241</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6975842326536257</v>
+        <v>0.6294048597240207</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4414945751747928</v>
       </c>
       <c r="E48" t="n">
-        <v>1.655721432091362</v>
+        <v>1.481568951497458</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.833969930963505</v>
+        <v>-2.863644401649328</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6416526768337985</v>
+        <v>0.57452053770617</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3744374435132235</v>
       </c>
       <c r="E49" t="n">
-        <v>1.478226586188879</v>
+        <v>1.359313401446694</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.790421594643694</v>
+        <v>-2.81342780257063</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5618195495335685</v>
+        <v>0.5112406575728823</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3047781544699484</v>
       </c>
       <c r="E50" t="n">
-        <v>1.385968154861938</v>
+        <v>1.236052092199972</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.706156173785535</v>
+        <v>-2.762004780393325</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5429638518119022</v>
+        <v>0.4649312103494325</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2359025649821329</v>
       </c>
       <c r="E51" t="n">
-        <v>1.285389185662799</v>
+        <v>1.122464734807151</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.646457747866112</v>
+        <v>-2.735077392435575</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4574127181671591</v>
+        <v>0.3844472976871122</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1699590651670811</v>
       </c>
       <c r="E52" t="n">
-        <v>1.239772608328135</v>
+        <v>1.090723852868505</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.563497557256195</v>
+        <v>-2.656373838228682</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3860263823192129</v>
+        <v>0.3398822235991619</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1081969275986969</v>
       </c>
       <c r="E53" t="n">
-        <v>1.190195206118669</v>
+        <v>1.032722836192472</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.523817947788996</v>
+        <v>-2.603617529452006</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3748117708358464</v>
+        <v>0.3104883164246427</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.04930278557181698</v>
       </c>
       <c r="E54" t="n">
-        <v>1.117647581302195</v>
+        <v>0.9871135779059288</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.473909358652056</v>
+        <v>-2.545261538942105</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3277258945908963</v>
+        <v>0.2886793827861624</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.007639333998071396</v>
       </c>
       <c r="E55" t="n">
-        <v>1.09573069170393</v>
+        <v>0.9831545827931572</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.444018366125988</v>
+        <v>-2.479801192389443</v>
       </c>
       <c r="G55" t="n">
-        <v>0.296092968612035</v>
+        <v>0.2598313546173328</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.06421279183525541</v>
       </c>
       <c r="E56" t="n">
-        <v>1.084724673092011</v>
+        <v>0.9705993656622983</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.414995290722931</v>
+        <v>-2.457024314636963</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2582937445912509</v>
+        <v>0.2283929933343541</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1216250703502919</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9741850893209002</v>
+        <v>0.9031683654030633</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.374809447094032</v>
+        <v>-2.414861718094723</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2206591991531887</v>
+        <v>0.1596927481468064</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1802207699598213</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9706865843190733</v>
+        <v>0.8903563716672936</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.398731755877444</v>
+        <v>-2.411494955959074</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2068743819380059</v>
+        <v>0.133427124123328</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2400827855601386</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9550701753116161</v>
+        <v>0.9055708429487739</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.33800195409364</v>
+        <v>-2.340543493553649</v>
       </c>
       <c r="G59" t="n">
-        <v>0.2001371981426468</v>
+        <v>0.1431632878862573</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2990536960970729</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9484641244617579</v>
+        <v>0.8723167478111163</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.358944800371138</v>
+        <v>-2.356942430789374</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1846970562107698</v>
+        <v>0.1238489298156765</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3562902837819642</v>
       </c>
       <c r="E61" t="n">
-        <v>1.039820483107789</v>
+        <v>0.9373214836182475</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.375584656274179</v>
+        <v>-2.346754315804975</v>
       </c>
       <c r="G61" t="n">
-        <v>0.197735330517613</v>
+        <v>0.1208206736556224</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4108764685579543</v>
       </c>
       <c r="E62" t="n">
-        <v>1.055846148889344</v>
+        <v>0.9677729932462479</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.361602224759729</v>
+        <v>-2.383999121930595</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1638700948618538</v>
+        <v>0.10451688404547</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4628301350928314</v>
       </c>
       <c r="E63" t="n">
-        <v>1.119177872280156</v>
+        <v>1.007685592411964</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.378688542598149</v>
+        <v>-2.361335079503314</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1383985875595014</v>
+        <v>0.07948939899579024</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.5130732824550237</v>
       </c>
       <c r="E64" t="n">
-        <v>1.189482818768227</v>
+        <v>1.039905262081857</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.440944975835854</v>
+        <v>-2.461296199056906</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1635212202347539</v>
+        <v>0.1258726466211265</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.5613173889193457</v>
       </c>
       <c r="E65" t="n">
-        <v>1.228303050001888</v>
+        <v>1.145028140322768</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.556103488891978</v>
+        <v>-2.553063644239066</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1300932977042231</v>
+        <v>0.09714538274629303</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6078912834132063</v>
       </c>
       <c r="E66" t="n">
-        <v>1.267417263001741</v>
+        <v>1.152474661865186</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.636382468206911</v>
+        <v>-2.643042192076323</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1307300548907481</v>
+        <v>0.07674231626771699</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.6518408430925234</v>
       </c>
       <c r="E67" t="n">
-        <v>1.313391863773656</v>
+        <v>1.216769450004582</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.682307055483333</v>
+        <v>-2.673441248526123</v>
       </c>
       <c r="G67" t="n">
-        <v>0.09024900965430274</v>
+        <v>0.009403414030670907</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.6919762826862049</v>
       </c>
       <c r="E68" t="n">
-        <v>1.348960607879572</v>
+        <v>1.260403175219138</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.765991831857227</v>
+        <v>-2.715812437939811</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05895336980968313</v>
+        <v>0.01991905641848418</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.727082797791513</v>
       </c>
       <c r="E69" t="n">
-        <v>1.331806588846033</v>
+        <v>1.256270352713493</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.805938586580841</v>
+        <v>-2.76938969994739</v>
       </c>
       <c r="G69" t="n">
-        <v>0.08792399203453914</v>
+        <v>0.04363277233044867</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.7555261432340288</v>
       </c>
       <c r="E70" t="n">
-        <v>1.344294104781773</v>
+        <v>1.32081642817171</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.843572522098226</v>
+        <v>-2.733953308628328</v>
       </c>
       <c r="G70" t="n">
-        <v>0.07927653667960517</v>
+        <v>0.001969090901788829</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.7764898062046609</v>
       </c>
       <c r="E71" t="n">
-        <v>1.332692193668671</v>
+        <v>1.321411100831539</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.905716120010732</v>
+        <v>-2.774530111411023</v>
       </c>
       <c r="G71" t="n">
-        <v>0.07321697475611322</v>
+        <v>-0.02319867590354303</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7889019909492284</v>
       </c>
       <c r="E72" t="n">
-        <v>1.329105250168716</v>
+        <v>1.377090149491193</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.984119288284327</v>
+        <v>-2.812018275886666</v>
       </c>
       <c r="G72" t="n">
-        <v>0.02748024304812985</v>
+        <v>-0.06760822021892263</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7920567113719907</v>
       </c>
       <c r="E73" t="n">
-        <v>1.379082150421452</v>
+        <v>1.432377629076374</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.042489002009454</v>
+        <v>-2.837319615320205</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.02736748372911601</v>
+        <v>-0.1253018368738749</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.7860008962768034</v>
       </c>
       <c r="E74" t="n">
-        <v>1.372682252760335</v>
+        <v>1.453473565443736</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.08425850467553</v>
+        <v>-2.829888341794707</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.05285972833447784</v>
+        <v>-0.1475322256999881</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.771820422242306</v>
       </c>
       <c r="E75" t="n">
-        <v>1.357240890987104</v>
+        <v>1.460649892126354</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.082405565659569</v>
+        <v>-2.788624768329994</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.04640798741583688</v>
+        <v>-0.1742918854716324</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.7511311364815568</v>
       </c>
       <c r="E76" t="n">
-        <v>1.384626939293768</v>
+        <v>1.516067284815682</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.15241256589705</v>
+        <v>-2.808541728029202</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.0615541475815214</v>
+        <v>-0.1784295873426913</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.7254572540042331</v>
       </c>
       <c r="E77" t="n">
-        <v>1.301287987943591</v>
+        <v>1.483195609942345</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.156045863368438</v>
+        <v>-2.826979630087295</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.06880793419008606</v>
+        <v>-0.1831284162363583</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.694671293471353</v>
       </c>
       <c r="E78" t="n">
-        <v>1.350425027424444</v>
+        <v>1.562940908665124</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.152404027007575</v>
+        <v>-2.807635385903554</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.04774371369791513</v>
+        <v>-0.1805240549466441</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.6582709010131185</v>
       </c>
       <c r="E79" t="n">
-        <v>1.386766541027801</v>
+        <v>1.612308498161788</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.10825613866252</v>
+        <v>-2.786435763021145</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.01478664992983382</v>
+        <v>-0.1509801072856449</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.615016301608884</v>
       </c>
       <c r="E80" t="n">
-        <v>1.440188883183486</v>
+        <v>1.684867101550444</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.063093952232034</v>
+        <v>-2.724748385774847</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.02891851201008632</v>
+        <v>-0.176776702308704</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.5637576406987104</v>
       </c>
       <c r="E81" t="n">
-        <v>1.576277434182897</v>
+        <v>1.82221513874734</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.951900533495449</v>
+        <v>-2.571069112537345</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.04659950250833577</v>
+        <v>-0.2105748466900209</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.5041969376465576</v>
       </c>
       <c r="E82" t="n">
-        <v>1.64384200707034</v>
+        <v>1.897169510554262</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.832908668985963</v>
+        <v>-2.482209159221244</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.02205812423802416</v>
+        <v>-0.1476694578522565</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4362623291117746</v>
       </c>
       <c r="E83" t="n">
-        <v>1.817967041233789</v>
+        <v>2.034243693367297</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.697531895416318</v>
+        <v>-2.370405209887234</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01305012975694755</v>
+        <v>-0.1689441009779055</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3619005892999377</v>
       </c>
       <c r="E84" t="n">
-        <v>2.019517158627215</v>
+        <v>2.252980765510807</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.59888454500044</v>
+        <v>-2.240483566850423</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.02348228901823088</v>
+        <v>-0.1929493589733555</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2827790778381422</v>
       </c>
       <c r="E85" t="n">
-        <v>2.160105704379673</v>
+        <v>2.36223707617804</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.394851440531973</v>
+        <v>-2.043485897388245</v>
       </c>
       <c r="G85" t="n">
-        <v>0.02066986877156103</v>
+        <v>-0.172859791722628</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2021918499445352</v>
       </c>
       <c r="E86" t="n">
-        <v>2.313373891081046</v>
+        <v>2.54436304977907</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.206597593891655</v>
+        <v>-1.85460871181629</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01887670198192174</v>
+        <v>-0.1687580751714973</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1238049723524778</v>
       </c>
       <c r="E87" t="n">
-        <v>2.436155802675844</v>
+        <v>2.680602251185638</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.953329252713377</v>
+        <v>-1.595191760295715</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03718286117383796</v>
+        <v>-0.1454865517501752</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.05136436838182713</v>
       </c>
       <c r="E88" t="n">
-        <v>2.534688488004492</v>
+        <v>2.797547221903957</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.661063803305182</v>
+        <v>-1.304493197106086</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03779949097803024</v>
+        <v>-0.1783222413035836</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.01162229895912937</v>
       </c>
       <c r="E89" t="n">
-        <v>2.569392974511457</v>
+        <v>2.868726184721809</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.467435945582037</v>
+        <v>-1.113328808996326</v>
       </c>
       <c r="G89" t="n">
-        <v>0.003483523942154257</v>
+        <v>-0.1900400373452673</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.06274529284806915</v>
       </c>
       <c r="E90" t="n">
-        <v>2.638805607049447</v>
+        <v>2.954957989841803</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.254272328582651</v>
+        <v>-0.9461227149899066</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.006350227129054682</v>
+        <v>-0.1874655621687137</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.09835383835550743</v>
       </c>
       <c r="E91" t="n">
-        <v>2.634405639287386</v>
+        <v>2.908519849355559</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.9091176076902484</v>
+        <v>-0.6246005905594608</v>
       </c>
       <c r="G91" t="n">
-        <v>0.000685207877234167</v>
+        <v>-0.1745053577084943</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1155384448394988</v>
       </c>
       <c r="E92" t="n">
-        <v>2.567403413263905</v>
+        <v>2.843930469529293</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.7137234196872406</v>
+        <v>-0.4826757086042482</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.009229662643982263</v>
+        <v>-0.1572543612873522</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1118316661627176</v>
       </c>
       <c r="E93" t="n">
-        <v>2.497142990985236</v>
+        <v>2.816959777203494</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4157521623480676</v>
+        <v>-0.2312273707253869</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.08215787796274755</v>
+        <v>-0.2049038042376175</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.08682038389453793</v>
       </c>
       <c r="E94" t="n">
-        <v>2.437206086081204</v>
+        <v>2.687378469904309</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1776391301456258</v>
+        <v>-0.08773987199634578</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1178028621532576</v>
+        <v>-0.204495767304873</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.04516105794057872</v>
       </c>
       <c r="E95" t="n">
-        <v>2.294487087404865</v>
+        <v>2.526072748524749</v>
       </c>
       <c r="F95" t="n">
-        <v>0.02836279826738429</v>
+        <v>0.09939294044010961</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1528214578087473</v>
+        <v>-0.1986850530174943</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.004904463222013218</v>
       </c>
       <c r="E96" t="n">
-        <v>2.130641046406651</v>
+        <v>2.33613491089593</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1821768639744468</v>
+        <v>0.2190593772180786</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1947181289359249</v>
+        <v>-0.2276398173047548</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.05202843326239583</v>
       </c>
       <c r="E97" t="n">
-        <v>1.970493564392237</v>
+        <v>2.154740842106997</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3120332454988455</v>
+        <v>0.3486577622962129</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2063023523494008</v>
+        <v>-0.2401413614160598</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.08464198524378687</v>
       </c>
       <c r="E98" t="n">
-        <v>1.767026466311791</v>
+        <v>1.883110229034542</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3959290544268944</v>
+        <v>0.3869540716685467</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3268934288733198</v>
+        <v>-0.3052619821517731</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.0952942593895396</v>
       </c>
       <c r="E99" t="n">
-        <v>1.606372140215</v>
+        <v>1.664716542232042</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4534061492416012</v>
+        <v>0.4709517373496125</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3178385465063181</v>
+        <v>-0.3083847760167232</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.08441453809588052</v>
       </c>
       <c r="E100" t="n">
-        <v>1.430431982117548</v>
+        <v>1.490611025530248</v>
       </c>
       <c r="F100" t="n">
-        <v>0.4806525257132904</v>
+        <v>0.4950088386025862</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3985999730765587</v>
+        <v>-0.3617882106314297</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.06289370267549099</v>
       </c>
       <c r="E101" t="n">
-        <v>1.301437418509394</v>
+        <v>1.323966668467114</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4949740731240115</v>
+        <v>0.5244472699865079</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.4071339831856176</v>
+        <v>-0.4018850058415238</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.04216977247987256</v>
       </c>
       <c r="E102" t="n">
-        <v>1.100024533268236</v>
+        <v>1.11456504220191</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4555603890718753</v>
+        <v>0.5087100966850545</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.4429454757208798</v>
+        <v>-0.4149915912641628</v>
       </c>
     </row>
   </sheetData>
